--- a/ozone/multistate/ANO-RCC-VTZP/ozone_115.00/ozone_115.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_115.00/ozone_115.00_energies.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8057613826</v>
+        <v>-0.560471058</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.50844741</v>
+        <v>-224.73773952</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.31420879</v>
+        <v>-225.29821058</v>
       </c>
       <c r="E2" t="n">
         <v>-224.5131810142</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7028538088</v>
+        <v>-0.5691579122</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49906192</v>
+        <v>-224.66015071</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.20191572</v>
+        <v>-225.22930862</v>
       </c>
       <c r="E3" t="n">
         <v>-224.5131810142</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8400864925</v>
+        <v>-0.5730019284</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42726303</v>
+        <v>-224.64730749</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26734952</v>
+        <v>-225.22030942</v>
       </c>
       <c r="E4" t="n">
         <v>-224.5131810142</v>
